--- a/data/trans_orig/P1408-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P1408-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>41769</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>31204</v>
+        <v>30283</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>55496</v>
+        <v>54747</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07150484932170874</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05341862767794078</v>
+        <v>0.05184243795012693</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09500386954073184</v>
+        <v>0.09372242662143213</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>35</v>
@@ -765,19 +765,19 @@
         <v>35946</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>24983</v>
+        <v>26060</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>49601</v>
+        <v>49217</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03897260138600089</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02708639169099372</v>
+        <v>0.02825421780200054</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05377824146324896</v>
+        <v>0.05336181908965779</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>77</v>
@@ -786,19 +786,19 @@
         <v>77715</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>60742</v>
+        <v>61962</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>95015</v>
+        <v>96601</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05158710802175669</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04032076305580853</v>
+        <v>0.04113029710195691</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06307094473284382</v>
+        <v>0.06412404834765936</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>542372</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>528645</v>
+        <v>529394</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>552937</v>
+        <v>553858</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9284951506782912</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9049961304592682</v>
+        <v>0.9062775733785678</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9465813723220592</v>
+        <v>0.9481575620498731</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>850</v>
@@ -836,19 +836,19 @@
         <v>886387</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>872732</v>
+        <v>873116</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>897350</v>
+        <v>896273</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9610273986139991</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9462217585367509</v>
+        <v>0.9466381809103424</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9729136083090058</v>
+        <v>0.9717457821979995</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1382</v>
@@ -857,19 +857,19 @@
         <v>1428759</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1411459</v>
+        <v>1409873</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1445732</v>
+        <v>1444512</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9484128919782433</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9369290552671564</v>
+        <v>0.9358759516523408</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9596792369441918</v>
+        <v>0.9588697028980431</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>44682</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>32884</v>
+        <v>33021</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>59332</v>
+        <v>58729</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04145339057164608</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03050776969443241</v>
+        <v>0.03063495558135692</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05504450517526471</v>
+        <v>0.05448538649335063</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>25</v>
@@ -982,19 +982,19 @@
         <v>26286</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17532</v>
+        <v>17737</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>37434</v>
+        <v>37534</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02485630815539508</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01657803972548669</v>
+        <v>0.01677219297172089</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03539752136823437</v>
+        <v>0.03549196607222609</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>71</v>
@@ -1003,19 +1003,19 @@
         <v>70969</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>54201</v>
+        <v>56049</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>88411</v>
+        <v>87793</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03323395529909624</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02538195367764542</v>
+        <v>0.02624720668375368</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0414017488876272</v>
+        <v>0.0411123330230595</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1033212</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1018562</v>
+        <v>1019165</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1045010</v>
+        <v>1044873</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9585466094283539</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9449554948247352</v>
+        <v>0.9455146135066488</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9694922303055675</v>
+        <v>0.9693650444186431</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1003</v>
@@ -1053,19 +1053,19 @@
         <v>1031252</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1020104</v>
+        <v>1020004</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1040006</v>
+        <v>1039801</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9751436918446049</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9646024786317657</v>
+        <v>0.964508033927774</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9834219602745133</v>
+        <v>0.9832278070282792</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2012</v>
@@ -1074,19 +1074,19 @@
         <v>2064463</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2047021</v>
+        <v>2047639</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2081231</v>
+        <v>2079383</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9667660447009038</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9585982511123727</v>
+        <v>0.9588876669769405</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9746180463223546</v>
+        <v>0.9737527933162463</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>37458</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>26673</v>
+        <v>26924</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>50268</v>
+        <v>50705</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03339727053059254</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02378148781429672</v>
+        <v>0.02400527135076756</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04481858761890578</v>
+        <v>0.0452078694396653</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -1199,19 +1199,19 @@
         <v>16616</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9873</v>
+        <v>9949</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25768</v>
+        <v>26549</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0167172405223534</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009932803275418785</v>
+        <v>0.01000952552219826</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02592474482967818</v>
+        <v>0.0267108908729525</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>54</v>
@@ -1220,19 +1220,19 @@
         <v>54074</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>40835</v>
+        <v>40965</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>71456</v>
+        <v>70618</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02556050526444397</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01930233920993882</v>
+        <v>0.01936410832232666</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03377701633284054</v>
+        <v>0.03338069749699835</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>1084136</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1071326</v>
+        <v>1070889</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1094921</v>
+        <v>1094670</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9666027294694075</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9551814123810943</v>
+        <v>0.9547921305603337</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9762185121857034</v>
+        <v>0.9759947286492319</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>966</v>
@@ -1270,19 +1270,19 @@
         <v>977324</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>968172</v>
+        <v>967391</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>984067</v>
+        <v>983991</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9832827594776467</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9740752551703218</v>
+        <v>0.9732891091270475</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9900671967245812</v>
+        <v>0.9899904744778018</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2031</v>
@@ -1291,19 +1291,19 @@
         <v>2061460</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2044078</v>
+        <v>2044916</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2074699</v>
+        <v>2074569</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.974439494735556</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9662229836671593</v>
+        <v>0.9666193025030017</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9806976607900612</v>
+        <v>0.9806358916776732</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>8279</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3958</v>
+        <v>3915</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16309</v>
+        <v>16307</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01851253062089278</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008850381177747392</v>
+        <v>0.00875509388098626</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03646899406869324</v>
+        <v>0.03646479867703261</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -1416,19 +1416,19 @@
         <v>8683</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3386</v>
+        <v>3523</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15682</v>
+        <v>15759</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02545047536674811</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.009924269156399948</v>
+        <v>0.0103274686414214</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04596719573192599</v>
+        <v>0.04619260622378024</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>16</v>
@@ -1437,19 +1437,19 @@
         <v>16961</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10384</v>
+        <v>10097</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>27311</v>
+        <v>27412</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02151489374940992</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01317171774517185</v>
+        <v>0.01280777948207845</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03464309467736428</v>
+        <v>0.03477142159774489</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>438921</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>430891</v>
+        <v>430893</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>443242</v>
+        <v>443285</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9814874693791072</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9635310059313068</v>
+        <v>0.9635352013229674</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9911496188222526</v>
+        <v>0.9912449061190137</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>331</v>
@@ -1487,19 +1487,19 @@
         <v>332475</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>325476</v>
+        <v>325399</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>337772</v>
+        <v>337635</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9745495246332518</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9540328042680741</v>
+        <v>0.9538073937762199</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9900757308436001</v>
+        <v>0.9896725313585787</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>759</v>
@@ -1508,19 +1508,19 @@
         <v>771397</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>761047</v>
+        <v>760946</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>777974</v>
+        <v>778261</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.97848510625059</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9653569053226357</v>
+        <v>0.965228578402255</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9868282822548282</v>
+        <v>0.9871922205179215</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>132188</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>112221</v>
+        <v>111209</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>156536</v>
+        <v>156229</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04091466169343467</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03473446448329082</v>
+        <v>0.03442108142753356</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04845077688244622</v>
+        <v>0.04835576773004992</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>84</v>
@@ -1633,19 +1633,19 @@
         <v>87531</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>71897</v>
+        <v>70130</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>107369</v>
+        <v>106388</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02640470497794371</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02168856433141493</v>
+        <v>0.02115556940231918</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0323891931560365</v>
+        <v>0.03209309568279265</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>218</v>
@@ -1654,19 +1654,19 @@
         <v>219719</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>192618</v>
+        <v>193387</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>251326</v>
+        <v>250293</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03356642802513132</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02942617599888213</v>
+        <v>0.02954363706059276</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03839495626899922</v>
+        <v>0.03823726938131375</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3098641</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3074293</v>
+        <v>3074600</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3118608</v>
+        <v>3119620</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9590853383065653</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9515492231175539</v>
+        <v>0.9516442322699501</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9652655355167092</v>
+        <v>0.9655789185724664</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3150</v>
@@ -1704,19 +1704,19 @@
         <v>3227438</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3207600</v>
+        <v>3208581</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3243072</v>
+        <v>3244839</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9735952950220563</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9676108068439634</v>
+        <v>0.9679069043172075</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9783114356685848</v>
+        <v>0.978844430597681</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6184</v>
@@ -1725,19 +1725,19 @@
         <v>6326079</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6294472</v>
+        <v>6295505</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6353180</v>
+        <v>6352411</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9664335719748687</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9616050437310006</v>
+        <v>0.961762730618686</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9705738240011178</v>
+        <v>0.9704563629394072</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>29458</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20338</v>
+        <v>19614</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>43288</v>
+        <v>42474</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02821841793865848</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01948223738903195</v>
+        <v>0.01878896356342079</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04146608778881512</v>
+        <v>0.04068691030955968</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -2090,19 +2090,19 @@
         <v>18194</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10879</v>
+        <v>10153</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29750</v>
+        <v>28244</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01628185757971678</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009735294410005821</v>
+        <v>0.009086007578171396</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0266226885797589</v>
+        <v>0.02527501633493534</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>44</v>
@@ -2111,19 +2111,19 @@
         <v>47653</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>34875</v>
+        <v>34708</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>64345</v>
+        <v>63533</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02204708476801607</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01613536877800483</v>
+        <v>0.01605809873859236</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02976992227462303</v>
+        <v>0.02939419306947745</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>1014477</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1000647</v>
+        <v>1001461</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1023597</v>
+        <v>1024321</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9717815820613416</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9585339122111851</v>
+        <v>0.9593130896904405</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9805177626109682</v>
+        <v>0.9812110364365793</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1012</v>
@@ -2161,19 +2161,19 @@
         <v>1099276</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1087720</v>
+        <v>1089226</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1106591</v>
+        <v>1107317</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9837181424202832</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9733773114202411</v>
+        <v>0.9747249836650645</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9902647055899941</v>
+        <v>0.9909139924218285</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1963</v>
@@ -2182,19 +2182,19 @@
         <v>2113752</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2097060</v>
+        <v>2097872</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2126530</v>
+        <v>2126697</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9779529152319839</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9702300777253768</v>
+        <v>0.9706058069305227</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9838646312219951</v>
+        <v>0.9839419012614078</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>18496</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11158</v>
+        <v>11263</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28916</v>
+        <v>29286</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01892954701598502</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01142027751154534</v>
+        <v>0.01152761012038046</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02959419144458734</v>
+        <v>0.0299735903304831</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -2307,19 +2307,19 @@
         <v>10607</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5157</v>
+        <v>5525</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19119</v>
+        <v>18798</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.009710766858208682</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004721392442883532</v>
+        <v>0.005058124849770803</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01750310788865467</v>
+        <v>0.01720937630915592</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>28</v>
@@ -2328,19 +2328,19 @@
         <v>29103</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>19930</v>
+        <v>20745</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>41545</v>
+        <v>42556</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01406343939114994</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.009630914181085975</v>
+        <v>0.01002481955232773</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02007596465732077</v>
+        <v>0.02056430120147115</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>958577</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>948157</v>
+        <v>947787</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>965915</v>
+        <v>965810</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.981070452984015</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9704058085554127</v>
+        <v>0.9700264096695169</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9885797224884546</v>
+        <v>0.9884723898796196</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1009</v>
@@ -2378,19 +2378,19 @@
         <v>1081720</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1073208</v>
+        <v>1073529</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1087170</v>
+        <v>1086802</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9902892331417913</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9824968921113453</v>
+        <v>0.9827906236908442</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9952786075571164</v>
+        <v>0.9949418751502292</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1915</v>
@@ -2399,19 +2399,19 @@
         <v>2040297</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2027855</v>
+        <v>2026844</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2049470</v>
+        <v>2048655</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.98593656060885</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9799240353426794</v>
+        <v>0.979435698798529</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9903690858189141</v>
+        <v>0.9899751804476723</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>20501</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11735</v>
+        <v>12002</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>34262</v>
+        <v>33868</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02316243577993776</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01325833900901714</v>
+        <v>0.01356020168421407</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0387085452687588</v>
+        <v>0.03826366666916933</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -2524,19 +2524,19 @@
         <v>9545</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4256</v>
+        <v>4430</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18017</v>
+        <v>18030</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01089904715058416</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004859245893819745</v>
+        <v>0.005057746936742627</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02057189668811109</v>
+        <v>0.02058697978585527</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -2545,19 +2545,19 @@
         <v>30047</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19316</v>
+        <v>20111</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>45305</v>
+        <v>44846</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01706319243092063</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0109693835969606</v>
+        <v>0.01142052272546524</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02572791997318257</v>
+        <v>0.0254676622208496</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>864614</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>850853</v>
+        <v>851247</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>873380</v>
+        <v>873113</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9768375642200623</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9612914547312406</v>
+        <v>0.9617363333308302</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9867416609909828</v>
+        <v>0.9864397983157857</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>812</v>
@@ -2595,19 +2595,19 @@
         <v>866251</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>857779</v>
+        <v>857766</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>871540</v>
+        <v>871366</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9891009528494158</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9794281033118888</v>
+        <v>0.9794130202141446</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9951407541061801</v>
+        <v>0.9949422530632572</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1626</v>
@@ -2616,19 +2616,19 @@
         <v>1730864</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1715606</v>
+        <v>1716065</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1741595</v>
+        <v>1740800</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9829368075690794</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9742720800268173</v>
+        <v>0.9745323377791505</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9890306164030394</v>
+        <v>0.9885794772745348</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>5198</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1971</v>
+        <v>2035</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11569</v>
+        <v>11674</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01033403000570888</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003918935949669577</v>
+        <v>0.004044732922926379</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02299865888312878</v>
+        <v>0.02320681140080041</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -2741,19 +2741,19 @@
         <v>4121</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10279</v>
+        <v>10275</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.009101955054580921</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.002294943167467887</v>
+        <v>0.002302387343042418</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02270406555081794</v>
+        <v>0.022695294922049</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -2762,19 +2762,19 @@
         <v>9319</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4328</v>
+        <v>4246</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>16811</v>
+        <v>17631</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.009750405250306647</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004527859717142452</v>
+        <v>0.004442126044465236</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01758957289702862</v>
+        <v>0.01844742888103965</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>497825</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>491454</v>
+        <v>491349</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>501052</v>
+        <v>500988</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9896659699942911</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9770013411168713</v>
+        <v>0.9767931885991996</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9960810640503305</v>
+        <v>0.9959552670770736</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>408</v>
@@ -2812,19 +2812,19 @@
         <v>448615</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>442457</v>
+        <v>442461</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>451697</v>
+        <v>451694</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9908980449454191</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9772959344491819</v>
+        <v>0.977304705077951</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9977050568325321</v>
+        <v>0.9976976126569576</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>864</v>
@@ -2833,19 +2833,19 @@
         <v>946439</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>938947</v>
+        <v>938127</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>951430</v>
+        <v>951512</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9902495947496933</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9824104271029714</v>
+        <v>0.9815525711189603</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9954721402828576</v>
+        <v>0.9955578739555347</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>73653</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>56335</v>
+        <v>57771</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>94372</v>
+        <v>95787</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02160465429911631</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01652472504689195</v>
+        <v>0.01694589565360975</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02768207679303053</v>
+        <v>0.02809695271092844</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>40</v>
@@ -2958,19 +2958,19 @@
         <v>42468</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>30724</v>
+        <v>31059</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>58384</v>
+        <v>57697</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01200226060361848</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008683108007243208</v>
+        <v>0.008777986614362302</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01650036177692957</v>
+        <v>0.01630627545486726</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>106</v>
@@ -2979,19 +2979,19 @@
         <v>116121</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>95555</v>
+        <v>93360</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>139854</v>
+        <v>137997</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01671418276074393</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01375395659559468</v>
+        <v>0.01343802903053767</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02013012662102663</v>
+        <v>0.01986290068470078</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3335492</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3314773</v>
+        <v>3313358</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3352810</v>
+        <v>3351374</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9783953457008837</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9723179232069694</v>
+        <v>0.9719030472890715</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.983475274953108</v>
+        <v>0.9830541043463903</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3241</v>
@@ -3029,19 +3029,19 @@
         <v>3495860</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3479944</v>
+        <v>3480631</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3507604</v>
+        <v>3507269</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9879977393963815</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9834996382230706</v>
+        <v>0.9836937245451328</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9913168919927569</v>
+        <v>0.9912220133856378</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6368</v>
@@ -3050,19 +3050,19 @@
         <v>6831353</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6807620</v>
+        <v>6809477</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6851919</v>
+        <v>6854114</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9832858172392561</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9798698733789734</v>
+        <v>0.9801370993152991</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9862460434044052</v>
+        <v>0.9865619709694622</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>30670</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21048</v>
+        <v>20441</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>43572</v>
+        <v>44114</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02719008098247046</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01865984935764856</v>
+        <v>0.01812129562424529</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0386280799030499</v>
+        <v>0.03910867601564022</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -3415,19 +3415,19 @@
         <v>21160</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12664</v>
+        <v>13631</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31458</v>
+        <v>33134</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01679990008545724</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01005442240548754</v>
+        <v>0.01082190567270587</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0249756455083315</v>
+        <v>0.02630629213829191</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>48</v>
@@ -3436,19 +3436,19 @@
         <v>51831</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>38625</v>
+        <v>38448</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>67633</v>
+        <v>67600</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02170872126269199</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01617747945475035</v>
+        <v>0.01610330931924691</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02832708350912484</v>
+        <v>0.02831332909702209</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>1097327</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1084425</v>
+        <v>1083883</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1106949</v>
+        <v>1107556</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9728099190175296</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9613719200969501</v>
+        <v>0.9608913239843597</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9813401506423515</v>
+        <v>0.9818787043757548</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1169</v>
@@ -3486,19 +3486,19 @@
         <v>1238401</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1228103</v>
+        <v>1226427</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1246897</v>
+        <v>1245930</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9832000999145427</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9750243544916685</v>
+        <v>0.9736937078617081</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9899455775945125</v>
+        <v>0.9891780943272941</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2206</v>
@@ -3507,19 +3507,19 @@
         <v>2335727</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2319925</v>
+        <v>2319958</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2348933</v>
+        <v>2349110</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.978291278737308</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9716729164908745</v>
+        <v>0.9716866709029782</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9838225205452493</v>
+        <v>0.9838966906807531</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>18498</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11383</v>
+        <v>11133</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28153</v>
+        <v>28911</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02035408364339881</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01252487207146496</v>
+        <v>0.01225035330932395</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03097757381869424</v>
+        <v>0.03181139387234549</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -3632,19 +3632,19 @@
         <v>9830</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5091</v>
+        <v>4416</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18826</v>
+        <v>18033</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0097670838755744</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005058221905103371</v>
+        <v>0.004387966307777024</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01870532774679166</v>
+        <v>0.01791701998431643</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>28</v>
@@ -3653,19 +3653,19 @@
         <v>28329</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>18710</v>
+        <v>19322</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>40482</v>
+        <v>40977</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0147906975881194</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.009768596103505237</v>
+        <v>0.01008839026002799</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02113630980772436</v>
+        <v>0.02139460851976323</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>890327</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>880672</v>
+        <v>879914</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>897442</v>
+        <v>897692</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9796459163566011</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9690224261813057</v>
+        <v>0.9681886061276543</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9874751279285336</v>
+        <v>0.9877496466906758</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>942</v>
@@ -3703,19 +3703,19 @@
         <v>996645</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>987649</v>
+        <v>988442</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1001384</v>
+        <v>1002059</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9902329161244255</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9812946722532084</v>
+        <v>0.9820829800156837</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9949417780948967</v>
+        <v>0.9956120336922231</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1804</v>
@@ -3724,19 +3724,19 @@
         <v>1886971</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1874818</v>
+        <v>1874323</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1896590</v>
+        <v>1895978</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9852093024118806</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9788636901922756</v>
+        <v>0.9786053914802367</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9902314038964948</v>
+        <v>0.9899116097399721</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>11109</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5682</v>
+        <v>5759</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18381</v>
+        <v>19569</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01348550287430286</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006898049350684094</v>
+        <v>0.00699125142301925</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02231339643175056</v>
+        <v>0.02375573965275869</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -3849,19 +3849,19 @@
         <v>12564</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6948</v>
+        <v>6519</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22751</v>
+        <v>21376</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01629390321290096</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009011420336633874</v>
+        <v>0.0084544949546718</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02950636202096665</v>
+        <v>0.02772336740945658</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>23</v>
@@ -3870,19 +3870,19 @@
         <v>23672</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15788</v>
+        <v>14750</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>35268</v>
+        <v>34866</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01484330139316598</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009899306730191203</v>
+        <v>0.009248457543572593</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02211426940006829</v>
+        <v>0.02186229722476073</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>812650</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>805378</v>
+        <v>804190</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>818077</v>
+        <v>818000</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9865144971256972</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9776866035682494</v>
+        <v>0.9762442603472412</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9931019506493159</v>
+        <v>0.9930087485769807</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>717</v>
@@ -3920,19 +3920,19 @@
         <v>758495</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>748308</v>
+        <v>749683</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>764111</v>
+        <v>764540</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9837060967870991</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9704936379790325</v>
+        <v>0.9722766325905438</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9909885796633661</v>
+        <v>0.9915455050453282</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1492</v>
@@ -3941,19 +3941,19 @@
         <v>1571146</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1559550</v>
+        <v>1559952</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1579030</v>
+        <v>1580068</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.985156698606834</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9778857305999326</v>
+        <v>0.9781377027752394</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9901006932698089</v>
+        <v>0.9907515424564274</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>6203</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2537</v>
+        <v>2054</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14496</v>
+        <v>13392</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01224141545027659</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005006805937254305</v>
+        <v>0.004053193756310567</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02860933130722906</v>
+        <v>0.02642963756537914</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -4069,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7724</v>
+        <v>6831</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.004012549028532544</v>
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0157739110786281</v>
+        <v>0.01394875958438276</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -4087,19 +4087,19 @@
         <v>8168</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3692</v>
+        <v>3673</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>17300</v>
+        <v>15862</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.008197194256748018</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003705103713020127</v>
+        <v>0.003686323952441797</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01736252018939683</v>
+        <v>0.01591978759685466</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>500498</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>492205</v>
+        <v>493309</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>504164</v>
+        <v>504647</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9877585845497234</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9713906686927708</v>
+        <v>0.9735703624346206</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9949931940627457</v>
+        <v>0.9959468062436891</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>453</v>
@@ -4137,7 +4137,7 @@
         <v>487733</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>481974</v>
+        <v>482867</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>489698</v>
@@ -4146,7 +4146,7 @@
         <v>0.9959874509714675</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9842260889213716</v>
+        <v>0.9860512404156173</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -4158,19 +4158,19 @@
         <v>988230</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>979098</v>
+        <v>980536</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>992706</v>
+        <v>992725</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.991802805743252</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9826374798106035</v>
+        <v>0.9840802124031452</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9962948962869799</v>
+        <v>0.9963136760475582</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>66480</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>50762</v>
+        <v>52016</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>82691</v>
+        <v>83450</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0197429771372896</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0150751792721931</v>
+        <v>0.01544741565596684</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02455727009216892</v>
+        <v>0.02478254861094981</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>41</v>
@@ -4283,19 +4283,19 @@
         <v>45519</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>34452</v>
+        <v>33029</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>62574</v>
+        <v>60184</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01290671835658968</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009768733919666359</v>
+        <v>0.009365269760543762</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01774237732562328</v>
+        <v>0.01706481713850481</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>107</v>
@@ -4304,19 +4304,19 @@
         <v>111999</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>92767</v>
+        <v>92070</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>133054</v>
+        <v>134501</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01624576154488129</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01345599871266778</v>
+        <v>0.01335488252368179</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01929977312196824</v>
+        <v>0.019509706709794</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3300802</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3284591</v>
+        <v>3283832</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3316520</v>
+        <v>3315266</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9802570228627104</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9754427299078308</v>
+        <v>0.9752174513890499</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9849248207278067</v>
+        <v>0.9845525843440331</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3281</v>
@@ -4354,19 +4354,19 @@
         <v>3481273</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3464218</v>
+        <v>3466608</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3492340</v>
+        <v>3493763</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9870932816434104</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9822576226743762</v>
+        <v>0.9829351828614952</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9902312660803334</v>
+        <v>0.990634730239456</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6420</v>
@@ -4375,19 +4375,19 @@
         <v>6782076</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6761021</v>
+        <v>6759574</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6801308</v>
+        <v>6802005</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9837542384551187</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9807002268780317</v>
+        <v>0.980490293290206</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9865440012873321</v>
+        <v>0.9866451174763182</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>26181</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17390</v>
+        <v>18266</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>36064</v>
+        <v>36754</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.05270255064886435</v>
+        <v>0.05270255064886437</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03500622207495747</v>
+        <v>0.0367689636827381</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07259644594552382</v>
+        <v>0.07398540911733362</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>48</v>
@@ -4740,19 +4740,19 @@
         <v>32506</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>24206</v>
+        <v>23827</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>46301</v>
+        <v>47297</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05218718242602882</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03886255441152089</v>
+        <v>0.03825406511083428</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07433395796722722</v>
+        <v>0.0759334925263688</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>79</v>
@@ -4761,19 +4761,19 @@
         <v>58687</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>46740</v>
+        <v>46311</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>75494</v>
+        <v>76553</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.05241584517924712</v>
+        <v>0.05241584517924713</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04174556386925241</v>
+        <v>0.04136217272462733</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06742683496309775</v>
+        <v>0.06837232157879386</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>470592</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>460709</v>
+        <v>460019</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>479383</v>
+        <v>478507</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9472974493511357</v>
+        <v>0.9472974493511358</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9274035540544763</v>
+        <v>0.9260145908826664</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9649937779250425</v>
+        <v>0.9632310363172619</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>812</v>
@@ -4811,19 +4811,19 @@
         <v>590366</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>576571</v>
+        <v>575575</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>598666</v>
+        <v>599045</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9478128175739712</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9256660420327731</v>
+        <v>0.9240665074736313</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9611374455884795</v>
+        <v>0.9617459348891657</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1234</v>
@@ -4832,19 +4832,19 @@
         <v>1060958</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1044151</v>
+        <v>1043092</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1072905</v>
+        <v>1073334</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9475841548207529</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9325731650369024</v>
+        <v>0.9316276784212064</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9582544361307477</v>
+        <v>0.9586378272753727</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>25924</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18116</v>
+        <v>17432</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38560</v>
+        <v>37665</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.02699993477882147</v>
+        <v>0.02699993477882146</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01886822457521557</v>
+        <v>0.01815551660239917</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04016135750589182</v>
+        <v>0.03922872402413377</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>44</v>
@@ -4957,19 +4957,19 @@
         <v>27998</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>20050</v>
+        <v>19701</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>39782</v>
+        <v>40136</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02514716040905064</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01800872696245071</v>
+        <v>0.01769480152638792</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03573174817394932</v>
+        <v>0.03604938999942867</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>78</v>
@@ -4978,19 +4978,19 @@
         <v>53921</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>42481</v>
+        <v>42664</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>69632</v>
+        <v>68910</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02600509291900462</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02048782649380456</v>
+        <v>0.02057610651984597</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03358219553046028</v>
+        <v>0.03323400312841426</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>934213</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>921577</v>
+        <v>922472</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>942021</v>
+        <v>942705</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9730000652211785</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9598386424941081</v>
+        <v>0.9607712759758663</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9811317754247844</v>
+        <v>0.9818444833976009</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1559</v>
@@ -5028,19 +5028,19 @@
         <v>1085358</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1073574</v>
+        <v>1073220</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1093306</v>
+        <v>1093655</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9748528395909494</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9642682518260508</v>
+        <v>0.9639506100005713</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9819912730375494</v>
+        <v>0.9823051984736121</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2435</v>
@@ -5049,19 +5049,19 @@
         <v>2019572</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2003861</v>
+        <v>2004583</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2031012</v>
+        <v>2030829</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9739949070809953</v>
+        <v>0.9739949070809955</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9664178044695401</v>
+        <v>0.9667659968715859</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9795121735061956</v>
+        <v>0.9794238934801545</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>19724</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12777</v>
+        <v>13026</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28074</v>
+        <v>28512</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.01884778748638246</v>
+        <v>0.01884778748638245</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01220927336501978</v>
+        <v>0.01244750372652387</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0268275668804156</v>
+        <v>0.02724530849714812</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -5174,19 +5174,19 @@
         <v>16264</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10965</v>
+        <v>11196</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23789</v>
+        <v>23290</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01555360912328817</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01048544558398614</v>
+        <v>0.01070658922762468</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02274917433095801</v>
+        <v>0.0222726920845403</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>56</v>
@@ -5195,19 +5195,19 @@
         <v>35988</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>26446</v>
+        <v>26679</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>47381</v>
+        <v>47605</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01720132024942636</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01264053499655181</v>
+        <v>0.01275171017571218</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02264699452795466</v>
+        <v>0.02275379582827875</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>1026755</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1018405</v>
+        <v>1017967</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1033702</v>
+        <v>1033453</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9811522125136175</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9731724331195842</v>
+        <v>0.9727546915028515</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9877907266349801</v>
+        <v>0.9875524962734761</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1484</v>
@@ -5245,19 +5245,19 @@
         <v>1029425</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1021900</v>
+        <v>1022399</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1034724</v>
+        <v>1034493</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9844463908767118</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9772508256690419</v>
+        <v>0.9777273079154599</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9895145544160139</v>
+        <v>0.9892934107723753</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2486</v>
@@ -5266,19 +5266,19 @@
         <v>2056180</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2044787</v>
+        <v>2044563</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2065722</v>
+        <v>2065489</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9827986797505737</v>
+        <v>0.9827986797505736</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9773530054720451</v>
+        <v>0.977246204171721</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9873594650034483</v>
+        <v>0.9872482898242878</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>17432</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11039</v>
+        <v>11939</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>26153</v>
+        <v>27036</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01786242604894089</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01131173335374452</v>
+        <v>0.0122337038424534</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02679812267227073</v>
+        <v>0.02770238397703252</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>31</v>
@@ -5391,19 +5391,19 @@
         <v>18265</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12315</v>
+        <v>11687</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26682</v>
+        <v>25668</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02011863446366648</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01356499545249176</v>
+        <v>0.01287331322890177</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0293906651494633</v>
+        <v>0.02827391297093119</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>55</v>
@@ -5412,19 +5412,19 @@
         <v>35697</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>26512</v>
+        <v>27696</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>46387</v>
+        <v>47472</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01894976093984366</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01407384609368972</v>
+        <v>0.01470251216165166</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02462436437630717</v>
+        <v>0.02520050191409567</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>958497</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>949776</v>
+        <v>948893</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>964890</v>
+        <v>963990</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9821375739510591</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9732018773277296</v>
+        <v>0.9722976160229676</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9886882666462558</v>
+        <v>0.9877662961575469</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1288</v>
@@ -5462,19 +5462,19 @@
         <v>889585</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>881168</v>
+        <v>882182</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>895535</v>
+        <v>896163</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9798813655363335</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9706093348505369</v>
+        <v>0.9717260870290685</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9864350045475089</v>
+        <v>0.9871266867710972</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2211</v>
@@ -5483,19 +5483,19 @@
         <v>1848082</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1837392</v>
+        <v>1836307</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1857267</v>
+        <v>1856083</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9810502390601563</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9753756356236928</v>
+        <v>0.9747994980859044</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9859261539063102</v>
+        <v>0.9852974878383484</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>89261</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>72636</v>
+        <v>74244</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>108021</v>
+        <v>108483</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.02565477392721291</v>
+        <v>0.0256547739272129</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02087641650213986</v>
+        <v>0.02133880807995559</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03104648334151999</v>
+        <v>0.03117937807187556</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>152</v>
@@ -5608,19 +5608,19 @@
         <v>95033</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>78578</v>
+        <v>79560</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>114026</v>
+        <v>114060</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.02575572156519113</v>
+        <v>0.02575572156519114</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02129630022889976</v>
+        <v>0.02156227152454956</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.030903380885668</v>
+        <v>0.03091243516732562</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>268</v>
@@ -5629,19 +5629,19 @@
         <v>184294</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>159350</v>
+        <v>161009</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>208441</v>
+        <v>209663</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02570672940620597</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02222736631401575</v>
+        <v>0.02245878293515671</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0290749242151616</v>
+        <v>0.02924538961183646</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3390057</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3371297</v>
+        <v>3370835</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3406682</v>
+        <v>3405074</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9743452260727872</v>
+        <v>0.974345226072787</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9689535166584801</v>
+        <v>0.9688206219281245</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9791235834978601</v>
+        <v>0.9786611919200444</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5143</v>
@@ -5679,19 +5679,19 @@
         <v>3594734</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3575741</v>
+        <v>3575707</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3611189</v>
+        <v>3610207</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9742442784348087</v>
+        <v>0.9742442784348088</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9690966191143325</v>
+        <v>0.9690875648326744</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9787036997711005</v>
+        <v>0.9784377284754504</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8366</v>
@@ -5700,19 +5700,19 @@
         <v>6984791</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6960644</v>
+        <v>6959422</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7009735</v>
+        <v>7008076</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.974293270593794</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9709250757848386</v>
+        <v>0.9707546103881632</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9777726336859842</v>
+        <v>0.9775412170648432</v>
       </c>
     </row>
     <row r="18">
